--- a/ODCM_Admin/ToPrint/ClientList.xlsx
+++ b/ODCM_Admin/ToPrint/ClientList.xlsx
@@ -238,6 +238,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,22 +265,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -304,15 +304,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>556845</xdr:colOff>
+      <xdr:colOff>613995</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1057274</xdr:colOff>
+      <xdr:colOff>942975</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:rowOff>91397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -329,8 +329,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="556845" y="0"/>
-          <a:ext cx="2119679" cy="1343026"/>
+          <a:off x="613995" y="0"/>
+          <a:ext cx="1948230" cy="1234397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -821,87 +821,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="22.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="17" customWidth="1"/>
+    <col min="1" max="3" width="22.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="10" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -910,10 +910,10 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -936,7 +936,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/ODCM_Admin/ToPrint/ClientList.xlsx
+++ b/ODCM_Admin/ToPrint/ClientList.xlsx
@@ -222,7 +222,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -250,6 +250,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,13 +306,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>613995</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>91397</xdr:rowOff>
@@ -341,13 +344,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>42429</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>55146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>155786</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>172907</xdr:rowOff>
@@ -379,13 +382,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>44724</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>46848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>160781</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>162889</xdr:rowOff>
@@ -417,13 +420,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>44328</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>44352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>160385</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>162113</xdr:rowOff>
@@ -455,13 +458,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>38921</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>43641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>154978</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161402</xdr:rowOff>
@@ -493,13 +496,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>38528</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>155242</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>155149</xdr:rowOff>
@@ -819,139 +822,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="22.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="0.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="22.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
+    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;R&amp;"Century Gothic,Regular"&amp;P</oddFooter>
+    <oddFooter>&amp;LPrepared by: Dr. Arviel D. Tolentino&amp;CDate Printed: &amp;D&amp;R&amp;"Century Gothic,Regular"&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
